--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-862463.448629176</v>
+        <v>-865102.7959471979</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>346.6910067295381</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>321.2363595898456</v>
       </c>
       <c r="W2" t="n">
-        <v>167.4528847450985</v>
+        <v>28.95197993279953</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>229.7255621044424</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>22.38871754551996</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>330.020628492162</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>208.8990535094712</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,16 +1057,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>213.6572806645754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>132.3154792121304</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>57.01231827275621</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>32.23168924578622</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>147.3668438349423</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>35.66730501685453</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>146.5235739004488</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.02356321678085</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>204.2584534680925</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>20.22544352993009</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>146.4467250013047</v>
+        <v>61.66004604094908</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>39.56681219551407</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>206.7582264966179</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652613</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652581</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>787.2279752566899</v>
+        <v>844.848651279277</v>
       </c>
       <c r="C2" t="n">
-        <v>787.2279752566899</v>
+        <v>475.8861343388652</v>
       </c>
       <c r="D2" t="n">
-        <v>787.2279752566899</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E2" t="n">
-        <v>401.4397226584456</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>1650.832247493755</v>
       </c>
       <c r="W2" t="n">
-        <v>1937.432905557703</v>
+        <v>1621.58782331921</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.967147296623</v>
+        <v>1621.58782331921</v>
       </c>
       <c r="Y2" t="n">
-        <v>1173.827815320812</v>
+        <v>1231.448491343399</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>458.7060632252739</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.556931114679</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>771.7836012132566</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>602.8474182853497</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>452.7307788730139</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269233</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V4" t="n">
-        <v>1413.467639269233</v>
+        <v>1158.783151063345</v>
       </c>
       <c r="W4" t="n">
-        <v>1181.421616941514</v>
+        <v>869.3659810263848</v>
       </c>
       <c r="X4" t="n">
-        <v>953.4320660434963</v>
+        <v>869.3659810263848</v>
       </c>
       <c r="Y4" t="n">
-        <v>953.4320660434963</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1201.12525314008</v>
+        <v>1635.930959598287</v>
       </c>
       <c r="C5" t="n">
-        <v>832.1627361996682</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W5" t="n">
-        <v>2351.330183441093</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X5" t="n">
-        <v>1977.864425180013</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="Y5" t="n">
-        <v>1587.725093204202</v>
+        <v>2022.530799662409</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>1057.327935297104</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>939.770065904978</v>
+        <v>622.6901078854036</v>
       </c>
       <c r="C7" t="n">
-        <v>770.8338829770711</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="D7" t="n">
-        <v>620.7172435647353</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
         <v>305.8408313751036</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>1121.418530735218</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V7" t="n">
-        <v>1121.418530735218</v>
+        <v>1158.783151063345</v>
       </c>
       <c r="W7" t="n">
-        <v>1121.418530735218</v>
+        <v>1158.783151063345</v>
       </c>
       <c r="X7" t="n">
-        <v>1121.418530735218</v>
+        <v>1025.131151859173</v>
       </c>
       <c r="Y7" t="n">
-        <v>1121.418530735218</v>
+        <v>804.3385727156433</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1289.73917080407</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4838,16 +4838,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.9042569062804</v>
+        <v>531.7821255545682</v>
       </c>
       <c r="C10" t="n">
-        <v>457.9680739783734</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1801.436510020915</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1801.436510020915</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1801.436510020915</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1546.752021815028</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1257.334851778068</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1029.34530088005</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y10" t="n">
-        <v>808.5527217365201</v>
+        <v>680.6375233676413</v>
       </c>
     </row>
     <row r="11">
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8178837532263</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1990.740875317776</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1701.665648661974</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.665648661974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.248478625013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.258927726996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.466348583466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770323</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2330.088019603117</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2110.486554626058</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072721</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.547769317909</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>762.547769317909</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4311299055732</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>612.4311299055732</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F22" t="n">
-        <v>465.5411824076629</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>822.8075068028749</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>672.6908673905391</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>524.777773808146</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6361,16 +6361,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,31 +6382,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2254.869721166297</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,13 +6473,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,34 +6716,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6853,10 +6853,10 @@
         <v>151.3734194384023</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6920,25 +6920,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6953,19 +6953,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7078,28 +7078,28 @@
         <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7154,46 +7154,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580114</v>
@@ -7327,25 +7327,25 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973196</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7597,22 +7597,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>231.2582814363236</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>240.4465442417437</v>
       </c>
       <c r="M6" t="n">
-        <v>60.50016306149553</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>60.18503901217336</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -22565,7 +22565,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,16 +22601,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>320.2889887846135</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012564</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>139.9994244361422</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.223257881847</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>13.14699685919575</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>147.0213775686977</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>65.31997266427226</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>19.07741329096416</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8542358274172</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>79.42624789262624</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.104746052056097e-13</v>
+        <v>-1.654232434377241e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186177.3549837539</v>
+        <v>186177.354983754</v>
       </c>
       <c r="C2" t="n">
+        <v>225786.486712678</v>
+      </c>
+      <c r="D2" t="n">
         <v>225786.4867126779</v>
-      </c>
-      <c r="D2" t="n">
-        <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
         <v>221965.3149147517</v>
@@ -26326,16 +26326,16 @@
         <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
+        <v>221965.3149147516</v>
+      </c>
+      <c r="H2" t="n">
         <v>221965.3149147517</v>
       </c>
-      <c r="H2" t="n">
-        <v>221965.3149147516</v>
-      </c>
       <c r="I2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="K2" t="n">
         <v>221965.3149147517</v>
@@ -26347,13 +26347,13 @@
         <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
+        <v>225786.4867126781</v>
+      </c>
+      <c r="O2" t="n">
         <v>225786.486712678</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>225786.4867126781</v>
-      </c>
-      <c r="P2" t="n">
-        <v>225786.486712678</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67721.68800182256</v>
+        <v>67721.68800182253</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54516.86175496488</v>
+        <v>54516.86175496503</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
@@ -26433,28 +26433,28 @@
         <v>9337.200356756603</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756588</v>
+        <v>9337.200356756615</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756575</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985004</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985005</v>
+        <v>17328.05961985012</v>
       </c>
       <c r="N4" t="n">
-        <v>17328.05961985005</v>
+        <v>17328.05961985008</v>
       </c>
       <c r="O4" t="n">
-        <v>17328.05961985005</v>
+        <v>17328.05961985007</v>
       </c>
       <c r="P4" t="n">
         <v>17328.05961985006</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1076029.062786976</v>
+        <v>-1076389.145802693</v>
       </c>
       <c r="C6" t="n">
-        <v>-3877.559419268975</v>
+        <v>-3877.559419269237</v>
       </c>
       <c r="D6" t="n">
-        <v>-163298.8294171612</v>
+        <v>-163298.8294171613</v>
       </c>
       <c r="E6" t="n">
-        <v>-213906.8770732674</v>
+        <v>-213941.6149987027</v>
       </c>
       <c r="F6" t="n">
-        <v>111505.584734088</v>
+        <v>111470.8468086523</v>
       </c>
       <c r="G6" t="n">
-        <v>111505.5847340879</v>
+        <v>111470.8468086522</v>
       </c>
       <c r="H6" t="n">
-        <v>111505.5847340879</v>
+        <v>111470.8468086523</v>
       </c>
       <c r="I6" t="n">
-        <v>111505.5847340879</v>
+        <v>111470.8468086523</v>
       </c>
       <c r="J6" t="n">
-        <v>-56099.59307589458</v>
+        <v>-56134.33100133021</v>
       </c>
       <c r="K6" t="n">
-        <v>111505.5847340879</v>
+        <v>111470.8468086522</v>
       </c>
       <c r="L6" t="n">
-        <v>37572.62323709003</v>
+        <v>37572.62323709007</v>
       </c>
       <c r="M6" t="n">
-        <v>20239.28330340078</v>
+        <v>20239.28330340089</v>
       </c>
       <c r="N6" t="n">
         <v>105294.3112389126</v>
       </c>
       <c r="O6" t="n">
+        <v>105294.3112389125</v>
+      </c>
+      <c r="P6" t="n">
         <v>105294.3112389126</v>
-      </c>
-      <c r="P6" t="n">
-        <v>105294.3112389127</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26793,10 +26793,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>6.515898880289285</v>
       </c>
       <c r="W2" t="n">
-        <v>181.7880839723145</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>56.79743623214864</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>196.1959358065748</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>35.25226327884553</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>140.3419152079418</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,16 +27777,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>72.5698734566252</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>93.39417617690671</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>324.9180517995056</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>354.0062494102673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>32.46513634699497</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>154.1017203145874</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28816,52 +28816,52 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>348.5948060356187</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>480.9378105598559</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>538.1269048795938</v>
       </c>
       <c r="M6" t="n">
-        <v>427.431495343536</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35036,7 +35036,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306624</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
